--- a/Design/Beta/bom/TX.xlsx
+++ b/Design/Beta/bom/TX.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farshid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shantanusd/Documents/GitHub/Project-Flow/Design/Beta/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE0F6C-1F75-084B-8B07-B0B52491EB5A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XXX BOM-Edit" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'XXX BOM-Edit'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -298,15 +299,6 @@
     <t xml:space="preserve">Rohm Semiconductor </t>
   </si>
   <si>
-    <t>LED GREEN CLEAR 0603SMD</t>
-  </si>
-  <si>
-    <t>LTST-C191KGKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lite-On Inc. </t>
-  </si>
-  <si>
     <t>Crect, Cload, C2</t>
   </si>
   <si>
@@ -331,9 +323,6 @@
     <t>Rset</t>
   </si>
   <si>
-    <t>Rf1,Rf2,Rdiv2,Rgrd</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -364,23 +353,36 @@
     <t>D2</t>
   </si>
   <si>
-    <t>Rs</t>
-  </si>
-  <si>
     <t>‎MAX16054AZT+T‎</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t>754-1790-2-ND</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>Rf1,Rf2,Rdiv1,Rgrd</t>
+  </si>
+  <si>
+    <t>Rs,Rset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Helv"/>
@@ -474,6 +476,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -511,7 +528,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -639,19 +656,43 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% - Accent1 5" xfId="6"/>
+    <cellStyle name="20% - Accent1 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Currency" xfId="10" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="4"/>
-    <cellStyle name="Normal 39" xfId="7"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 40" xfId="8"/>
-    <cellStyle name="Normal 41" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 39" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 40" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 41" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,6 +1237,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1231,6 +1289,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1406,35 +1481,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="8" width="7.85546875" style="34" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.83203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.1640625" style="6"/>
+    <col min="13" max="13" width="16.5" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="15" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1527,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1548,7 @@
       <c r="N2" s="13"/>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1567,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1588,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1529,7 +1604,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -1551,7 +1626,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1">
       <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
@@ -1569,7 +1644,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1667,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="13" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1701,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="21">
         <v>1</v>
       </c>
@@ -1655,7 +1730,7 @@
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="21">
         <v>2</v>
       </c>
@@ -1678,13 +1753,13 @@
       <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A12" s="21">
         <v>3</v>
       </c>
@@ -1707,13 +1782,13 @@
       <c r="G12" s="25"/>
       <c r="H12" s="21"/>
       <c r="I12" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A13" s="21">
         <v>4</v>
       </c>
@@ -1742,7 +1817,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A14" s="21">
         <v>5</v>
       </c>
@@ -1765,13 +1840,13 @@
       <c r="G14" s="25"/>
       <c r="H14" s="21"/>
       <c r="I14" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="21">
         <v>6</v>
       </c>
@@ -1794,13 +1869,13 @@
       <c r="G15" s="25"/>
       <c r="H15" s="21"/>
       <c r="I15" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="21">
         <v>7</v>
       </c>
@@ -1823,13 +1898,13 @@
       <c r="G16" s="25"/>
       <c r="H16" s="21"/>
       <c r="I16" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
     </row>
-    <row r="17" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="21">
         <v>8</v>
       </c>
@@ -1852,13 +1927,13 @@
       <c r="G17" s="25"/>
       <c r="H17" s="21"/>
       <c r="I17" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
     </row>
-    <row r="18" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="21">
         <v>9</v>
       </c>
@@ -1881,42 +1956,42 @@
       <c r="G18" s="25"/>
       <c r="H18" s="29"/>
       <c r="I18" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" spans="1:12" s="50" customFormat="1" ht="15">
+      <c r="A19" s="43">
         <v>10</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="46">
         <v>1</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="G19" s="43"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A20" s="21">
         <v>11</v>
       </c>
@@ -1939,13 +2014,13 @@
       <c r="G20" s="25"/>
       <c r="H20" s="29"/>
       <c r="I20" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
       <c r="L20" s="26"/>
     </row>
-    <row r="21" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A21" s="21">
         <v>12</v>
       </c>
@@ -1968,13 +2043,13 @@
       <c r="G21" s="25"/>
       <c r="H21" s="29"/>
       <c r="I21" s="38" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
     </row>
-    <row r="22" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A22" s="21">
         <v>13</v>
       </c>
@@ -1982,7 +2057,7 @@
         <v>61</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>62</v>
@@ -1997,13 +2072,13 @@
       <c r="G22" s="25"/>
       <c r="H22" s="29"/>
       <c r="I22" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A23" s="21">
         <v>14</v>
       </c>
@@ -2026,13 +2101,13 @@
       <c r="G23" s="25"/>
       <c r="H23" s="29"/>
       <c r="I23" s="38" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
     </row>
-    <row r="24" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A24" s="21">
         <v>15</v>
       </c>
@@ -2055,13 +2130,13 @@
       <c r="G24" s="25"/>
       <c r="H24" s="29"/>
       <c r="I24" s="38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A25" s="21">
         <v>16</v>
       </c>
@@ -2084,13 +2159,13 @@
       <c r="G25" s="25"/>
       <c r="H25" s="29"/>
       <c r="I25" s="38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A26" s="21">
         <v>17</v>
       </c>
@@ -2113,13 +2188,13 @@
       <c r="G26" s="25"/>
       <c r="H26" s="29"/>
       <c r="I26" s="38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A27" s="21">
         <v>18</v>
       </c>
@@ -2142,13 +2217,13 @@
       <c r="G27" s="25"/>
       <c r="H27" s="29"/>
       <c r="I27" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A28" s="21">
         <v>19</v>
       </c>
@@ -2171,13 +2246,13 @@
       <c r="G28" s="25"/>
       <c r="H28" s="29"/>
       <c r="I28" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J28" s="26"/>
       <c r="K28" s="26"/>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="30">
       <c r="A29" s="21">
         <v>20</v>
       </c>
@@ -2200,13 +2275,13 @@
       <c r="G29" s="25"/>
       <c r="H29" s="29"/>
       <c r="I29" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="15">
       <c r="A30" s="21">
         <v>21</v>
       </c>
@@ -2229,13 +2304,13 @@
       <c r="G30" s="25"/>
       <c r="H30" s="29"/>
       <c r="I30" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J30" s="26"/>
       <c r="K30" s="26"/>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14">
       <c r="A31" s="41">
         <v>22</v>
       </c>
@@ -2258,21 +2333,21 @@
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14">
       <c r="A32" s="41">
         <v>23</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E32" s="41">
         <v>1</v>

--- a/Design/Beta/bom/TX.xlsx
+++ b/Design/Beta/bom/TX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shantanusd/Documents/GitHub/Project-Flow/Design/Beta/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE0F6C-1F75-084B-8B07-B0B52491EB5A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6F848-A443-904A-A42A-AB42506D8DA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XXX BOM-Edit" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -656,28 +656,28 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1488,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
